--- a/data-raw/Lamellenpilze_Habitustypen_n_Merkmale.xlsx
+++ b/data-raw/Lamellenpilze_Habitustypen_n_Merkmale.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="320">
   <si>
     <t xml:space="preserve">Habitustyp</t>
   </si>
@@ -303,6 +303,15 @@
     <t xml:space="preserve">key2</t>
   </si>
   <si>
+    <t xml:space="preserve">key3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mycena</t>
   </si>
   <si>
@@ -312,7 +321,10 @@
     <t xml:space="preserve">Lamellenpilze</t>
   </si>
   <si>
-    <t xml:space="preserve">Habitustypen</t>
+    <t xml:space="preserve">Fleisch faserig/ Faserblättler (Aragicales)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamellen angewachsen/ Habitustypen</t>
   </si>
   <si>
     <t xml:space="preserve">Helmlingshabitus</t>
@@ -465,16 +477,25 @@
     <t xml:space="preserve">Schleierlinge</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprödblättler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lactarius </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freiblättler</t>
+    <t xml:space="preserve">Fleisch spröde/ Sprödblättler (Russulales)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ohne Milchsaft/ Täublinge (Russula)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mit Milchsaft/ Milchlinge (Lactarius)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamellen frei/ Freiblättler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stiel leicht vom Hut trennbar/ Echte Freiblättler</t>
   </si>
   <si>
     <t xml:space="preserve">Scheidlinge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stiel nicht vom Hut trennbar/ Unechte Freiblättler</t>
   </si>
   <si>
     <t xml:space="preserve">Aureoboletus</t>
@@ -1055,7 +1076,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1069,6 +1090,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1275,8 +1300,8 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="D77 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1507,8 +1532,8 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D77 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1648,8 +1673,8 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="D77 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1705,8 +1730,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D77" activeCellId="0" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1714,9 +1739,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="46.94"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1729,230 +1757,316 @@
       <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1960,254 +2074,341 @@
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>117</v>
+      <c r="G16" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>138</v>
+        <v>99</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>138</v>
+        <v>99</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>87</v>
       </c>
@@ -2215,16 +2416,17 @@
         <v>86</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
@@ -2232,14 +2434,15 @@
         <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>146</v>
+        <v>97</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
@@ -2249,13 +2452,19 @@
         <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,19 +2472,25 @@
         <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>69</v>
       </c>
@@ -2283,13 +2498,19 @@
         <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>69</v>
+        <v>97</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2300,13 +2521,19 @@
         <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>71</v>
+        <v>97</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2317,20 +2544,25 @@
         <v>75</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>77</v>
       </c>
@@ -2338,20 +2570,25 @@
         <v>76</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>79</v>
       </c>
@@ -2359,34 +2596,36 @@
         <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>81</v>
+    <row r="39" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2395,43 +2634,52 @@
     </row>
     <row r="40" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2440,13 +2688,16 @@
     </row>
     <row r="43" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2455,13 +2706,16 @@
     </row>
     <row r="44" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2470,13 +2724,16 @@
     </row>
     <row r="45" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>152</v>
+      <c r="D45" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2485,13 +2742,16 @@
     </row>
     <row r="46" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2500,13 +2760,16 @@
     </row>
     <row r="47" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2515,13 +2778,16 @@
     </row>
     <row r="48" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2530,13 +2796,16 @@
     </row>
     <row r="49" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -2545,13 +2814,16 @@
     </row>
     <row r="50" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -2560,13 +2832,16 @@
     </row>
     <row r="51" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -2575,13 +2850,16 @@
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -2590,13 +2868,16 @@
     </row>
     <row r="53" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -2605,13 +2886,16 @@
     </row>
     <row r="54" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -2620,73 +2904,88 @@
     </row>
     <row r="55" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -2695,13 +2994,16 @@
     </row>
     <row r="60" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -2710,13 +3012,16 @@
     </row>
     <row r="61" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -2725,710 +3030,885 @@
     </row>
     <row r="62" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B65" s="6"/>
+        <v>159</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="C65" s="1" t="s">
-        <v>152</v>
+        <v>198</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>193</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B67" s="3"/>
       <c r="C67" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B68" s="3"/>
+        <v>202</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="C68" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>212</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B77" s="3"/>
       <c r="C77" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="1" t="s">
-        <v>191</v>
+        <v>221</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>216</v>
+        <v>223</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="45.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>216</v>
+        <v>233</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>227</v>
+      <c r="D88" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>227</v>
+        <v>247</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D94" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>240</v>
+        <v>260</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D100" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>253</v>
+        <v>273</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>266</v>
+        <v>277</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>270</v>
+        <v>284</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>295</v>
+        <v>305</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>298</v>
+        <v>305</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>298</v>
+        <v>305</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>298</v>
+        <v>311</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>304</v>
+        <v>311</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>304</v>
+        <v>311</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>304</v>
+        <v>317</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
+        <v>317</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/Lamellenpilze_Habitustypen_n_Merkmale.xlsx
+++ b/data-raw/Lamellenpilze_Habitustypen_n_Merkmale.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="336">
   <si>
     <t xml:space="preserve">Habitustyp</t>
   </si>
@@ -477,6 +477,9 @@
     <t xml:space="preserve">Schleierlinge</t>
   </si>
   <si>
+    <t xml:space="preserve">Schleirlinge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fleisch spröde/ Sprödblättler (Russulales)</t>
   </si>
   <si>
@@ -507,6 +510,9 @@
     <t xml:space="preserve">Röhrlinge</t>
   </si>
   <si>
+    <t xml:space="preserve">Merkmal Röhrlinge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boletus</t>
   </si>
   <si>
@@ -624,6 +630,9 @@
     <t xml:space="preserve">Stachelinge</t>
   </si>
   <si>
+    <t xml:space="preserve">Merkmal Stachelinge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boletopsis</t>
   </si>
   <si>
@@ -699,6 +708,9 @@
     <t xml:space="preserve">Leistlinge</t>
   </si>
   <si>
+    <t xml:space="preserve">Merkmal Leistlinge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Craterellus</t>
   </si>
   <si>
@@ -732,6 +744,9 @@
     <t xml:space="preserve">Keulen und Korallen</t>
   </si>
   <si>
+    <t xml:space="preserve">Merkmal Keulen und Korallen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Clavaria</t>
   </si>
   <si>
@@ -771,6 +786,9 @@
     <t xml:space="preserve">Bauchpilze</t>
   </si>
   <si>
+    <t xml:space="preserve">Merkmal Bauchpilze</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calvatia</t>
   </si>
   <si>
@@ -810,6 +828,9 @@
     <t xml:space="preserve">Erdsterne und Nestpilze</t>
   </si>
   <si>
+    <t xml:space="preserve">Mermal Erdsterne</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nidularia</t>
   </si>
   <si>
@@ -849,6 +870,9 @@
     <t xml:space="preserve">Rutenpilze</t>
   </si>
   <si>
+    <t xml:space="preserve">Merkmal Rutenpilze</t>
+  </si>
+  <si>
     <t xml:space="preserve">Clathrus</t>
   </si>
   <si>
@@ -861,6 +885,9 @@
     <t xml:space="preserve">Trüffeln</t>
   </si>
   <si>
+    <t xml:space="preserve">Merkmal Trüffel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Terfezia</t>
   </si>
   <si>
@@ -882,6 +909,9 @@
     <t xml:space="preserve">Porlinge</t>
   </si>
   <si>
+    <t xml:space="preserve">Merkmal Porlinge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Laetiporus</t>
   </si>
   <si>
@@ -906,6 +936,9 @@
     <t xml:space="preserve">Rindenpilze</t>
   </si>
   <si>
+    <t xml:space="preserve">Merkmal Rindenpilze</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cytidia</t>
   </si>
   <si>
@@ -921,6 +954,9 @@
     <t xml:space="preserve">Gallertpilze</t>
   </si>
   <si>
+    <t xml:space="preserve">Merkmal Gallertpilze</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dacrymyces</t>
   </si>
   <si>
@@ -936,6 +972,9 @@
     <t xml:space="preserve">Rostpilze</t>
   </si>
   <si>
+    <t xml:space="preserve">Merkmal Rostpilze</t>
+  </si>
+  <si>
     <t xml:space="preserve">Uromyces</t>
   </si>
   <si>
@@ -945,6 +984,9 @@
     <t xml:space="preserve">Becherlinge</t>
   </si>
   <si>
+    <t xml:space="preserve">Merkmal Becherlinge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sarcoscypha</t>
   </si>
   <si>
@@ -963,6 +1005,9 @@
     <t xml:space="preserve">Morcheln</t>
   </si>
   <si>
+    <t xml:space="preserve">Merkmal Morcheln</t>
+  </si>
+  <si>
     <t xml:space="preserve">Helvella</t>
   </si>
   <si>
@@ -979,6 +1024,9 @@
   </si>
   <si>
     <t xml:space="preserve">Erdzungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merkmal Erdzungen</t>
   </si>
   <si>
     <t xml:space="preserve">Microglossum</t>
@@ -1093,12 +1141,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1300,8 +1348,8 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="D77 D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="33" zoomScaleNormal="33" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="D123:D124 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1532,8 +1580,8 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D77 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="33" zoomScaleNormal="33" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D123:D124 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1673,8 +1721,8 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="D77 B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="33" zoomScaleNormal="33" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="D123:D124 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1730,8 +1778,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D77" activeCellId="0" sqref="D77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="33" zoomScaleNormal="33" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D123" activeCellId="0" sqref="D123:D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1739,9 +1787,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="46.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="46.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,18 +1805,18 @@
       <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -1780,7 +1828,7 @@
       <c r="C2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1803,7 +1851,7 @@
       <c r="C3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1826,7 +1874,7 @@
       <c r="C4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1849,7 +1897,7 @@
       <c r="C5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1872,7 +1920,7 @@
       <c r="C6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1895,7 +1943,7 @@
       <c r="C7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1918,7 +1966,7 @@
       <c r="C8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1941,7 +1989,7 @@
       <c r="C9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1964,7 +2012,7 @@
       <c r="C10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1987,7 +2035,7 @@
       <c r="C11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2010,7 +2058,7 @@
       <c r="C12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -2033,7 +2081,7 @@
       <c r="C13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2056,7 +2104,7 @@
       <c r="C14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2079,7 +2127,7 @@
       <c r="C15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2102,7 +2150,7 @@
       <c r="C16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -2125,7 +2173,7 @@
       <c r="C17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2148,7 +2196,7 @@
       <c r="C18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2171,7 +2219,7 @@
       <c r="C19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -2194,7 +2242,7 @@
       <c r="C20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2217,7 +2265,7 @@
       <c r="C21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -2240,7 +2288,7 @@
       <c r="C22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -2263,7 +2311,7 @@
       <c r="C23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2286,7 +2334,7 @@
       <c r="C24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -2309,7 +2357,7 @@
       <c r="C25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -2332,7 +2380,7 @@
       <c r="C26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -2355,7 +2403,7 @@
       <c r="C27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -2378,7 +2426,7 @@
       <c r="C28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -2401,11 +2449,17 @@
       <c r="C29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>99</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2418,13 +2472,15 @@
       <c r="C30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>150</v>
+      <c r="D30" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
@@ -2436,13 +2492,15 @@
       <c r="C31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>150</v>
+      <c r="D31" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
@@ -2454,14 +2512,14 @@
       <c r="C32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" s="0" t="s">
         <v>154</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>64</v>
@@ -2472,25 +2530,25 @@
         <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="0" t="s">
         <v>154</v>
       </c>
+      <c r="F33" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="G33" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>69</v>
       </c>
@@ -2500,14 +2558,14 @@
       <c r="C34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" s="0" t="s">
         <v>154</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>68</v>
@@ -2523,14 +2581,14 @@
       <c r="C35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" s="0" t="s">
         <v>154</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>70</v>
@@ -2546,14 +2604,14 @@
       <c r="C36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="0" t="s">
         <v>154</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>75</v>
@@ -2572,14 +2630,14 @@
       <c r="C37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>76</v>
@@ -2598,14 +2656,14 @@
       <c r="C38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>78</v>
@@ -2616,16 +2674,19 @@
     </row>
     <row r="39" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2634,16 +2695,19 @@
     </row>
     <row r="40" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="D40" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>161</v>
+      <c r="E40" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2652,16 +2716,19 @@
     </row>
     <row r="41" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2670,16 +2737,19 @@
     </row>
     <row r="42" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2688,16 +2758,19 @@
     </row>
     <row r="43" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2706,16 +2779,19 @@
     </row>
     <row r="44" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2724,16 +2800,19 @@
     </row>
     <row r="45" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2742,16 +2821,19 @@
     </row>
     <row r="46" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2760,16 +2842,19 @@
     </row>
     <row r="47" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2778,16 +2863,19 @@
     </row>
     <row r="48" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2796,16 +2884,19 @@
     </row>
     <row r="49" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -2814,16 +2905,19 @@
     </row>
     <row r="50" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -2832,16 +2926,19 @@
     </row>
     <row r="51" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -2850,16 +2947,19 @@
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -2868,16 +2968,19 @@
     </row>
     <row r="53" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -2886,16 +2989,19 @@
     </row>
     <row r="54" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -2904,52 +3010,61 @@
     </row>
     <row r="55" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>181</v>
+        <v>160</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>183</v>
+        <v>160</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>184</v>
+        <v>160</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -2958,34 +3073,40 @@
     </row>
     <row r="58" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>185</v>
+        <v>160</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>187</v>
+        <v>160</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -2994,16 +3115,19 @@
     </row>
     <row r="60" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>188</v>
+        <v>160</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -3012,16 +3136,19 @@
     </row>
     <row r="61" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -3030,882 +3157,1071 @@
     </row>
     <row r="62" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>192</v>
+        <v>160</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>194</v>
+        <v>160</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>200</v>
+      <c r="D66" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="0" t="s">
         <v>201</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="D80" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>227</v>
+      <c r="E80" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>226</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="45.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>238</v>
+      <c r="D85" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>240</v>
+      <c r="E86" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="D92" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>253</v>
+      <c r="E92" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>266</v>
+      <c r="D98" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D99" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>268</v>
+      <c r="E99" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>280</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>280</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>285</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>283</v>
+        <v>293</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>293</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>302</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>302</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>308</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>314</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>305</v>
+        <v>318</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>307</v>
+        <v>318</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>318</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>311</v>
+        <v>325</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>313</v>
+        <v>325</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>325</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>317</v>
+        <v>332</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>319</v>
+        <v>332</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
